--- a/data/total_analysis_김주원.xlsx
+++ b/data/total_analysis_김주원.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김주원\Desktop\논문\data analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NaverCloud\2019년\B4.졸업논문\GS_Thesis_17024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF275D9F-F94E-43DB-A584-BDC607D92726}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="6915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -97,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,7 +215,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -562,7 +567,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -637,7 +641,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -743,7 +746,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1136,7 +1138,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1211,7 +1212,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1314,7 +1314,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1743,7 +1742,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1818,7 +1816,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1895,7 +1892,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2266,7 +2262,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2348,7 +2343,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2755,7 +2749,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2837,7 +2830,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3280,7 +3272,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6622,7 +6613,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6652,7 +6649,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="차트 3"/>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6682,7 +6685,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="차트 4"/>
+        <xdr:cNvPr id="5" name="차트 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6712,7 +6721,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="차트 5"/>
+        <xdr:cNvPr id="6" name="차트 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6742,7 +6757,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="차트 6"/>
+        <xdr:cNvPr id="7" name="차트 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6772,7 +6793,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="차트 7"/>
+        <xdr:cNvPr id="8" name="차트 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7052,16 +7079,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7072,7 +7099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7092,7 +7119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -7130,7 +7157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -7186,7 +7213,7 @@
         <v>29589.645629999999</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7242,7 +7269,7 @@
         <v>27892.076720000001</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7298,7 +7325,7 @@
         <v>24379.61364</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -7354,7 +7381,7 @@
         <v>21338.739560000002</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -7410,7 +7437,7 @@
         <v>19052.539049999999</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -7466,7 +7493,7 @@
         <v>15233.09958</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7522,7 +7549,7 @@
         <v>15052.46142</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -7578,7 +7605,7 @@
         <v>14068.00664</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -7634,7 +7661,7 @@
         <v>11467.06983</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B13">
         <f>AVERAGE(B4:B12)</f>
         <v>574.51085666666677</v>
@@ -7680,7 +7707,7 @@
         <v>8723.5591399999994</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G14">
         <v>10</v>
       </c>
@@ -7718,7 +7745,7 @@
         <v>8168.8395200000004</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G15">
         <v>11</v>
       </c>
@@ -7756,7 +7783,7 @@
         <v>6621.5789800000002</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H16">
         <f>AVERAGE(H4:H15)</f>
         <v>579.33881250000002</v>
@@ -7784,7 +7811,7 @@
         <v>2740.1167700000001</v>
       </c>
     </row>
-    <row r="17" spans="13:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="13:18" x14ac:dyDescent="0.3">
       <c r="M17">
         <v>13</v>
       </c>
@@ -7804,7 +7831,7 @@
         <v>14945.043960000001</v>
       </c>
     </row>
-    <row r="18" spans="13:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="13:18" x14ac:dyDescent="0.3">
       <c r="M18">
         <v>14</v>
       </c>
@@ -7824,7 +7851,7 @@
         <v>13269.35736</v>
       </c>
     </row>
-    <row r="19" spans="13:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="13:18" x14ac:dyDescent="0.3">
       <c r="N19">
         <f>AVERAGE(N4:N18)</f>
         <v>578.99477466666679</v>
@@ -7837,6 +7864,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>